--- a/Solid_State_Electronics_Labs/7_sem/Lab14/Physical fundamentals of acoustooptical spectroscopy.xlsx
+++ b/Solid_State_Electronics_Labs/7_sem/Lab14/Physical fundamentals of acoustooptical spectroscopy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekha\OneDrive\GitHub\Labs\Solid_State_Electronics_Labs\7_sem\Lab14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_AD4DF75460589B3ACB7284C327196F105BDEDDA5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C14C7DE-AB5B-4E10-8513-48B66422E352}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_AD4DF75460589B3ACB7284C327196F105BDEDDA5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08CDD242-5407-4B59-B1F1-3B3B401DD9DF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,6 +1046,337 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$63:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.951999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.372999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.008000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.518999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.207000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$63:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C725-4015-8776-780AA4FD34C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1583198127"/>
+        <c:axId val="1575916879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1583198127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575916879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1575916879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583198127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1126,6 +1457,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1643,6 +2014,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2232,7 +3119,140 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50005</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2854F245-63FE-454A-9E48-F607D08B126E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515122</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>554362</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126495</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Рукописный ввод 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0F7B7F-CC3E-4003-A23C-938C73F953CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11635560" y="15173445"/>
+            <a:ext cx="39240" cy="21600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Рукописный ввод 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0F7B7F-CC3E-4003-A23C-938C73F953CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11626560" y="15164445"/>
+              <a:ext cx="56880" cy="39240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-12-12T13:12:48.044"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71225"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 60 3512 0 0,'-19'-4'72'0'0,"2"-4"24"0"0,-1-3 0 0 0,1 3 0 0 0,3-4-96 0 0,5 4 0 0 0,-5-1 0 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2500,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
